--- a/hfc_enumerators.xlsx
+++ b/hfc_enumerators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Enumerator</t>
   </si>
@@ -62,39 +62,6 @@
   </si>
   <si>
     <t>mean</t>
-  </si>
-  <si>
-    <t>enumid</t>
-  </si>
-  <si>
-    <t>gpsLatitude</t>
-  </si>
-  <si>
-    <t>gpsLongitude</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>consentsign</t>
-  </si>
-  <si>
-    <t>eduattain</t>
-  </si>
-  <si>
-    <t>employyear</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>childnum</t>
-  </si>
-  <si>
-    <t>ta_consent</t>
-  </si>
-  <si>
-    <t>ta_mod1</t>
   </si>
 </sst>
 </file>
@@ -870,15 +837,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -930,34 +897,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -984,70 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1">
-      <formula>$A1 &lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="56" priority="2">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E38" sqref="A2:E38"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,41 +965,27 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="expression" dxfId="55" priority="1">
-      <formula>$A1 &lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1101,12 +994,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E38" sqref="A2:E38"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,22 +1010,53 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="expression" dxfId="55" priority="1">
+      <formula>$A1 &lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="54" priority="2">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
@@ -1162,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +1098,8 @@
     <col min="2" max="1505" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576 BEX2:XFD1048576">
